--- a/tests/fmudesign/data/config/design_input_mc_with_correls.xlsx
+++ b/tests/fmudesign/data/config/design_input_mc_with_correls.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://statoilsrm-my.sharepoint.com/personal/tral_equinor_com/Documents/FMU_stdmat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FCUR/git/fmu-tools/tests/sensitivities/data/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AC414D-7111-4FD5-9841-A07DB1ED395D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC186C-3D14-DE49-BDBF-460B38239368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="23580" windowHeight="13605" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26280" yWindow="2660" windowWidth="30740" windowHeight="17940" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
     <sheet name="designinput" sheetId="2" r:id="rId2"/>
     <sheet name="corr1" sheetId="3" r:id="rId3"/>
     <sheet name="corr2" sheetId="4" r:id="rId4"/>
-    <sheet name="depend1" sheetId="5" r:id="rId5"/>
-    <sheet name="defaultvalues" sheetId="6" r:id="rId6"/>
-    <sheet name="INFO" sheetId="7" r:id="rId7"/>
+    <sheet name="corr3" sheetId="8" r:id="rId5"/>
+    <sheet name="depend1" sheetId="5" r:id="rId6"/>
+    <sheet name="defaultvalues" sheetId="6" r:id="rId7"/>
+    <sheet name="INFO" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports">0</definedName>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>designtype</t>
   </si>
@@ -420,6 +421,9 @@
   </si>
   <si>
     <t>oocalc filename.xlsx</t>
+  </si>
+  <si>
+    <t>corr3</t>
   </si>
 </sst>
 </file>
@@ -549,17 +553,14 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -570,38 +571,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,7 +606,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1004,9 +999,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1044,7 +1039,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1150,7 +1145,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1292,7 +1287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,19 +1297,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375"/>
+    <col min="1" max="1" width="14.6640625"/>
     <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.85546875"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="3" max="3" width="77.83203125"/>
+    <col min="4" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1363,403 +1358,407 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3"/>
-    <col min="2" max="2" width="8.28515625" style="4"/>
-    <col min="3" max="3" width="5.42578125" style="4"/>
-    <col min="4" max="4" width="12" style="4"/>
-    <col min="5" max="5" width="9.5703125" style="2"/>
-    <col min="6" max="6" width="6.85546875" style="2"/>
-    <col min="7" max="7" width="9.5703125" style="2"/>
-    <col min="8" max="8" width="6.85546875" style="2"/>
-    <col min="9" max="9" width="9.85546875" style="4"/>
-    <col min="10" max="10" width="31.42578125" style="2"/>
-    <col min="11" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="14" width="8.85546875" style="2"/>
-    <col min="15" max="15" width="10" style="4"/>
-    <col min="16" max="16" width="10.28515625" style="4"/>
-    <col min="17" max="17" width="12.7109375"/>
-    <col min="18" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="10.6640625" style="3"/>
+    <col min="2" max="2" width="8.33203125" style="2"/>
+    <col min="3" max="3" width="5.5" style="2"/>
+    <col min="4" max="4" width="12" style="2"/>
+    <col min="5" max="5" width="9.5" style="2"/>
+    <col min="6" max="6" width="6.83203125" style="2"/>
+    <col min="7" max="7" width="9.5" style="2"/>
+    <col min="8" max="8" width="6.83203125" style="2"/>
+    <col min="9" max="9" width="9.83203125" style="2"/>
+    <col min="10" max="10" width="31.5" style="2"/>
+    <col min="11" max="13" width="11.33203125" style="2"/>
+    <col min="14" max="14" width="8.83203125" style="2"/>
+    <col min="15" max="15" width="10" style="2"/>
+    <col min="16" max="16" width="10.33203125" style="2"/>
+    <col min="17" max="17" width="12.6640625"/>
+    <col min="18" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="Q1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>500</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8">
+      <c r="M2" s="8"/>
+      <c r="N2" s="7">
         <v>3</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-1</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>2</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>10</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7">
         <v>3</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>2500</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>2550</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2430</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>2470</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>2500</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8">
+      <c r="M6" s="8"/>
+      <c r="N6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>2400</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>2450</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>2500</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8">
+      <c r="M7" s="8"/>
+      <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.75</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>0.8</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8">
+      <c r="M9" s="8"/>
+      <c r="N9" s="7">
         <v>2</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="O9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.5</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>0.6</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>0.65</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8">
+      <c r="M10" s="8"/>
+      <c r="N10" s="7">
         <v>2</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>1E-3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="8">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7">
         <v>3</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1781,58 +1780,58 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="4"/>
-    <col min="2" max="4" width="8.5703125" style="4"/>
-    <col min="5" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.83203125" style="2"/>
+    <col min="2" max="4" width="8.5" style="2"/>
+    <col min="5" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>0.2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1846,64 +1845,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="4"/>
-    <col min="2" max="2" width="18.140625" style="4"/>
-    <col min="3" max="3" width="13.85546875" style="4"/>
-    <col min="4" max="4" width="12.42578125" style="4"/>
-    <col min="5" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.83203125" style="2"/>
+    <col min="2" max="2" width="18.1640625" style="2"/>
+    <col min="3" max="3" width="13.83203125" style="2"/>
+    <col min="4" max="4" width="12.5" style="2"/>
+    <col min="5" max="1024" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0.5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>-0.7</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1914,6 +1913,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FB4C1-4B21-1E49-B8E2-B257F97AD1D4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1921,14 +1962,14 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
+    <col min="1" max="1" width="11.5"/>
     <col min="2" max="3" width="16"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="4" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1939,8 +1980,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B2">
@@ -1950,7 +1991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +2002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1971,322 +2012,7 @@
       <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A15:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" style="4"/>
-    <col min="2" max="2" width="12.140625" style="15"/>
-    <col min="3" max="999" width="8.7109375"/>
-    <col min="1000" max="1025" width="8.85546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39" s="19"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40" s="19"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41" s="19"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" s="19"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47" s="19"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49" s="19"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50" s="19"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51" s="19"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52" s="19"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53" s="19"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54" s="19"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55" s="19"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56" s="19"/>
+      <c r="F4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2299,43 +2025,330 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A15:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="2"/>
+    <col min="2" max="2" width="12.1640625" style="14"/>
+    <col min="3" max="999" width="8.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="18"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2369,6 +2382,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="02f74cf1-ae9f-400d-bc52-3bcd3a9e177f" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3F81C8E0C6D6E4B8B0E11E1FD2C3815" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="831350f1af26471ff20340f15875df59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24e64fd7-dd82-45ab-bc56-7bee2b649a8c" xmlns:ns4="7518fa5f-d3e5-45ff-bc46-9421360fd0ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9136827b31234ee1bd7613b24a8ed12" ns3:_="" ns4:_="">
     <xsd:import namespace="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
@@ -2571,27 +2604,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="02f74cf1-ae9f-400d-bc52-3bcd3a9e177f" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDBEAEB-23AE-46E2-827B-BF6C7AC8C447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7518fa5f-d3e5-45ff-bc46-9421360fd0ce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500F210C-5797-4401-A254-1609F5DB0E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3A5BD9-4F1C-44F9-BDEA-8C1F442B7137}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44DCED42-2DE3-41DF-9BF8-CBCF7C2AF5A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2608,37 +2654,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3A5BD9-4F1C-44F9-BDEA-8C1F442B7137}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500F210C-5797-4401-A254-1609F5DB0E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDBEAEB-23AE-46E2-827B-BF6C7AC8C447}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7518fa5f-d3e5-45ff-bc46-9421360fd0ce"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/fmudesign/data/config/design_input_mc_with_correls.xlsx
+++ b/tests/fmudesign/data/config/design_input_mc_with_correls.xlsx
@@ -1,122 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FCUR/git/fmu-tools/tests/sensitivities/data/config/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC186C-3D14-DE49-BDBF-460B38239368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="26280" yWindow="2660" windowWidth="30740" windowHeight="17940" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="general_input" sheetId="1" r:id="rId1"/>
-    <sheet name="designinput" sheetId="2" r:id="rId2"/>
-    <sheet name="corr1" sheetId="3" r:id="rId3"/>
-    <sheet name="corr2" sheetId="4" r:id="rId4"/>
-    <sheet name="corr3" sheetId="8" r:id="rId5"/>
-    <sheet name="depend1" sheetId="5" r:id="rId6"/>
-    <sheet name="defaultvalues" sheetId="6" r:id="rId7"/>
-    <sheet name="INFO" sheetId="7" r:id="rId8"/>
+    <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="designinput" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="corr1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="corr2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="corr3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="depend1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="defaultvalues" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="INFO" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports">0</definedName>
-    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode">2</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel">0.95</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest">0.9</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod">100</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance">0.03</definedName>
-    <definedName name="_AtRisk_SimSetting_GoalSeekTargetValue">0</definedName>
-    <definedName name="_AtRisk_SimSetting_LiveUpdate">1</definedName>
-    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod">-1</definedName>
-    <definedName name="_AtRisk_SimSetting_MacroMode">0</definedName>
-    <definedName name="_AtRisk_SimSetting_MacroRecalculationBehavior">0</definedName>
-    <definedName name="_AtRisk_SimSetting_MultipleCPUManualCount">4</definedName>
-    <definedName name="_AtRisk_SimSetting_MultipleCPUMode">2</definedName>
-    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionCustomItemsCount">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionDataMode">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionReportMultiSimType">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionReportPlacement">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionReportSelection">513</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionReportsFileType">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionReportStyle">1</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportOptionSelectiveQR">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportsList">513</definedName>
-    <definedName name="_AtRisk_SimSetting_ShowSimulationProgressWindow">1</definedName>
-    <definedName name="_AtRisk_SimSetting_SimNameCount">0</definedName>
-    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StatisticFunctionUpdating">1</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber">1</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile">0.5</definedName>
-    <definedName name="RiskAfterRecalcMacro">""</definedName>
-    <definedName name="RiskAfterSimMacro">""</definedName>
-    <definedName name="RiskBeforeRecalcMacro">""</definedName>
-    <definedName name="RiskBeforeSimMacro">""</definedName>
-    <definedName name="RiskCollectDistributionSamples">2</definedName>
-    <definedName name="RiskFixedSeed">9</definedName>
-    <definedName name="RiskHasSettings">7</definedName>
-    <definedName name="RiskMinimizeOnStart">0</definedName>
-    <definedName name="RiskMonitorConvergence">0</definedName>
-    <definedName name="RiskMultipleCPUSupportEnabled">0</definedName>
-    <definedName name="RiskNumIterations">5000</definedName>
-    <definedName name="RiskNumSimulations">1</definedName>
-    <definedName name="RiskPauseOnError">0</definedName>
-    <definedName name="RiskRunAfterRecalcMacro">0</definedName>
-    <definedName name="RiskRunAfterSimMacro">0</definedName>
-    <definedName name="RiskRunBeforeRecalcMacro">0</definedName>
-    <definedName name="RiskRunBeforeSimMacro">0</definedName>
-    <definedName name="RiskSamplingType">3</definedName>
-    <definedName name="RiskStandardRecalc">1</definedName>
-    <definedName name="RiskUpdateDisplay">0</definedName>
-    <definedName name="RiskUseDifferentSeedForEachSim">0</definedName>
-    <definedName name="RiskUseFixedSeed">1</definedName>
-    <definedName name="RiskUseMultipleCPUs">0</definedName>
+    <definedName function="false" hidden="false" name="RiskAfterRecalcMacro" vbProcedure="false">""</definedName>
+    <definedName function="false" hidden="false" name="RiskAfterSimMacro" vbProcedure="false">""</definedName>
+    <definedName function="false" hidden="false" name="RiskBeforeRecalcMacro" vbProcedure="false">""</definedName>
+    <definedName function="false" hidden="false" name="RiskBeforeSimMacro" vbProcedure="false">""</definedName>
+    <definedName function="false" hidden="false" name="RiskCollectDistributionSamples" vbProcedure="false">2</definedName>
+    <definedName function="false" hidden="false" name="RiskFixedSeed" vbProcedure="false">9</definedName>
+    <definedName function="false" hidden="false" name="RiskHasSettings" vbProcedure="false">7</definedName>
+    <definedName function="false" hidden="false" name="RiskMinimizeOnStart" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskMonitorConvergence" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskMultipleCPUSupportEnabled" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskNumIterations" vbProcedure="false">5000</definedName>
+    <definedName function="false" hidden="false" name="RiskNumSimulations" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="RiskPauseOnError" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskRunAfterRecalcMacro" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskRunAfterSimMacro" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskRunBeforeRecalcMacro" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskRunBeforeSimMacro" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskSamplingType" vbProcedure="false">3</definedName>
+    <definedName function="false" hidden="false" name="RiskStandardRecalc" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="RiskUpdateDisplay" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskUseDifferentSeedForEachSim" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="RiskUseFixedSeed" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="RiskUseMultipleCPUs" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_AutomaticallyGenerateReports" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" vbProcedure="false">2</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" vbProcedure="false">0.95</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePercentileToTest" vbProcedure="false">0.9</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformMeanTest" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTestingPeriod" vbProcedure="false">100</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTolerance" vbProcedure="false">0.03</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_GoalSeekTargetValue" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_LiveUpdate" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_LiveUpdatePeriod" vbProcedure="false">-1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MacroMode" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MacroRecalculationBehavior" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MultipleCPUManualCount" vbProcedure="false">4</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MultipleCPUMode" vbProcedure="false">2</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_RandomNumberGenerator" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionCustomItemsCount" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionDataMode" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportMultiSimType" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportPlacement" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportSelection" vbProcedure="false">513</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportsFileType" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportStyle" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionSelectiveQR" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportsList" vbProcedure="false">513</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ShowSimulationProgressWindow" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_SimNameCount" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StatisticFunctionUpdating" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber" vbProcedure="false">1</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcBehavior" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" vbProcedure="false">0</definedName>
+    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" vbProcedure="false">0.5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Default number of realisations per sensitivity/scenario. Typically &gt; 1 for repeating seeds</t>
+          <t xml:space="preserve">Default number of realisations per sensitivity/scenario. Typically &gt; 1 for repeating seeds</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Default is using seeds 1000-1001-1002-1003.
+          <t xml:space="preserve">Default is using seeds 1000-1001-1002-1003.
 Alternatives:
 - None: seed number is not added as parameter in spreadsheet
 - filename for file with list of seeds.</t>
@@ -128,12 +128,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,13 +143,13 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Optional columns in grey text. 
+          <t xml:space="preserve">Optional columns in grey text. 
 numreal = Number of realisation per sensitivity/scenario
 Overwrites number of realisations from 'repeats' in general_input</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,12 +159,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Optional column:
+          <t xml:space="preserve">Optional column:
 For sensitivities of type dist. Number of decimals in output</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,12 +174,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Optional column:
+          <t xml:space="preserve">Optional column:
 For sensitivities of type dist. Name of sheet with correlation matrix</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Optional column:
+          <t xml:space="preserve">Optional column:
 For sensitivities of type extern. Name of file to read parameters from</t>
         </r>
       </text>
@@ -199,243 +199,244 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
-  <si>
-    <t>designtype</t>
-  </si>
-  <si>
-    <t>onebyone</t>
-  </si>
-  <si>
-    <t>repeats</t>
-  </si>
-  <si>
-    <t>rms_seeds</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>distribution_seed</t>
-  </si>
-  <si>
-    <t>sensname</t>
-  </si>
-  <si>
-    <t>numreal</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>param_name</t>
-  </si>
-  <si>
-    <t>senscase1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>senscase2</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>dist_name</t>
-  </si>
-  <si>
-    <t>dist_param1</t>
-  </si>
-  <si>
-    <t>dist_param2</t>
-  </si>
-  <si>
-    <t>dist_param3</t>
-  </si>
-  <si>
-    <t>dist_param4</t>
-  </si>
-  <si>
-    <t>decimals</t>
-  </si>
-  <si>
-    <t>corr_sheet</t>
-  </si>
-  <si>
-    <t>extern_file</t>
-  </si>
-  <si>
-    <t>dependencies</t>
-  </si>
-  <si>
-    <t>montecarlo</t>
-  </si>
-  <si>
-    <t>dist</t>
-  </si>
-  <si>
-    <t>PARAM1</t>
-  </si>
-  <si>
-    <t>triang</t>
-  </si>
-  <si>
-    <t>corr1</t>
-  </si>
-  <si>
-    <t>PARAM2</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
-    <t>PARAM3</t>
-  </si>
-  <si>
-    <t>logn</t>
-  </si>
-  <si>
-    <t>OWC1</t>
-  </si>
-  <si>
-    <t>unif</t>
-  </si>
-  <si>
-    <t>corr2</t>
-  </si>
-  <si>
-    <t>OWC2</t>
-  </si>
-  <si>
-    <t>OWC3</t>
-  </si>
-  <si>
-    <t>DATO</t>
-  </si>
-  <si>
-    <t>disc</t>
-  </si>
-  <si>
-    <t>2018-11-02, 2018-11-03, 2018-11-04</t>
-  </si>
-  <si>
-    <t>0.3, 0.4, 0.3</t>
-  </si>
-  <si>
-    <t>depend1</t>
-  </si>
-  <si>
-    <t>NTG1</t>
-  </si>
-  <si>
-    <t>NTG2</t>
-  </si>
-  <si>
-    <t>pert</t>
-  </si>
-  <si>
-    <t>FAULTSEAL</t>
-  </si>
-  <si>
-    <t>logunif</t>
-  </si>
-  <si>
-    <t>DERIVED_PARAM1</t>
-  </si>
-  <si>
-    <t>DERIVED_PARAM2</t>
-  </si>
-  <si>
-    <t>2018-11-02</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2018-11-03</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>2018-11-04</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>default_value</t>
-  </si>
-  <si>
-    <t>RMS_SEED</t>
-  </si>
-  <si>
-    <t>HUM_MODE</t>
-  </si>
-  <si>
-    <t>PREDICTION</t>
-  </si>
-  <si>
-    <t>HUM_METHOD</t>
-  </si>
-  <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
-    <t>INJ_UNC</t>
-  </si>
-  <si>
-    <t>NTG6</t>
-  </si>
-  <si>
-    <t>This file is an example for configuration of design matrix for one-by-one sensititivities</t>
-  </si>
-  <si>
-    <t>and contains the set up for the three mandatory pages. For more advanced set ups consult the documentation</t>
-  </si>
-  <si>
-    <t>From FMU wiki portal :</t>
-  </si>
-  <si>
-    <t>One-by-one sensitivities and Tornado plots</t>
-  </si>
-  <si>
-    <t>Documentation for set up:</t>
-  </si>
-  <si>
-    <t>https://sdp.equinor.com/wikidocs/FMU/lib/fmu/tools/html/examples.html#create-design-matrix-for-one-by-one-sensitivities</t>
-  </si>
-  <si>
-    <t>Run with command</t>
-  </si>
-  <si>
-    <t>fmudesign  design_input_template.xlsx</t>
-  </si>
-  <si>
-    <t>from the command line</t>
-  </si>
-  <si>
-    <t>Excel files can be edited in Linux using</t>
-  </si>
-  <si>
-    <t>oocalc filename.xlsx</t>
-  </si>
-  <si>
-    <t>corr3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+  <si>
+    <t xml:space="preserve">designtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onebyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rms_seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution_seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numreal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senscase1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senscase2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_param1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_param2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_param3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_param4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corr_sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extern_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montecarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02, 2018-11-03, 2018-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3, 0.4, 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depend1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAULTSEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logunif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERIVED_PARAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERIVED_PARAM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS_SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUM_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDICTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUM_METHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJ_UNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file is an example for configuration of design matrix for one-by-one sensititivities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and contains the set up for the three mandatory pages. For more advanced set ups consult the documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From FMU wiki portal :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-by-one sensitivities and Tornado plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation for set up:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sdp.equinor.com/wikidocs/FMU/lib/fmu/tools/html/examples.html#create-design-matrix-for-one-by-one-sensitivities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run with command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmudesign  design_input_template.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from the command line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel files can be edited in Linux using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oocalc filename.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,7 +445,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -452,14 +468,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
@@ -474,16 +483,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -510,111 +512,153 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -673,30 +717,14 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -705,47 +733,43 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>361440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C0B2AB-F637-4566-BBD3-4F400B374602}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="0" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10039320" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -754,43 +778,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>361440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A730A78-AA02-43A1-A9EA-E19E437E650E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="1" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10039320" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -798,8 +818,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -808,47 +828,43 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA0ABB3-49C0-4554-8E04-603304EB40C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="2" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10042200" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -857,47 +873,43 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C537B5-C32E-4853-8020-D729373854C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="3" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10042200" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -906,47 +918,43 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553D6E63-3EC1-46D6-A522-D2DE6388B9A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="4" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10042200" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -955,361 +963,64 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B093D77-FCD8-413E-893F-75FF05B822A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="5" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10042200" cy="9524520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625"/>
-    <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.83203125"/>
-    <col min="4" max="1025" width="8.6640625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,15 +1028,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,55 +1044,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D8:D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3"/>
-    <col min="2" max="2" width="8.33203125" style="2"/>
-    <col min="3" max="3" width="5.5" style="2"/>
-    <col min="4" max="4" width="12" style="2"/>
-    <col min="5" max="5" width="9.5" style="2"/>
-    <col min="6" max="6" width="6.83203125" style="2"/>
-    <col min="7" max="7" width="9.5" style="2"/>
-    <col min="8" max="8" width="6.83203125" style="2"/>
-    <col min="9" max="9" width="9.83203125" style="2"/>
-    <col min="10" max="10" width="31.5" style="2"/>
-    <col min="11" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="8.83203125" style="2"/>
-    <col min="15" max="15" width="10" style="2"/>
-    <col min="16" max="16" width="10.33203125" style="2"/>
-    <col min="17" max="17" width="12.6640625"/>
-    <col min="18" max="1025" width="8.6640625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="2" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1430,15 +1144,15 @@
       <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="7" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1454,17 +1168,17 @@
       <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="L2" s="8">
-        <v>4.4999999999999998E-2</v>
+      <c r="J2" s="8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0.045</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="7">
+      <c r="N2" s="7" t="n">
         <v>3</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -1473,7 +1187,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1487,19 +1201,19 @@
       <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -1508,7 +1222,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1522,15 +1236,15 @@
       <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="8" t="n">
         <v>10</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="7">
+      <c r="N4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -1539,7 +1253,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1553,15 +1267,15 @@
       <c r="I5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="8" t="n">
         <v>2500</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="8" t="n">
         <v>2550</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="7">
+      <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -1570,7 +1284,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1584,17 +1298,17 @@
       <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="8" t="n">
         <v>2430</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="8" t="n">
         <v>2470</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="8" t="n">
         <v>2500</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="7">
+      <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
@@ -1603,7 +1317,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1617,17 +1331,17 @@
       <c r="I7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="8" t="n">
         <v>2400</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="8" t="n">
         <v>2450</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="8" t="n">
         <v>2500</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="7">
+      <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -1636,7 +1350,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1660,19 +1374,19 @@
       <c r="M8" s="8"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1681,79 +1395,79 @@
       <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="7">
+      <c r="N9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="8">
+        <v>45</v>
+      </c>
+      <c r="J10" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="8" t="n">
         <v>0.65</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="7">
+      <c r="N10" s="7" t="n">
         <v>2</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="K11" s="8">
+        <v>47</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="7">
+      <c r="N11" s="7" t="n">
         <v>3</v>
       </c>
       <c r="O11" s="7"/>
@@ -1761,34 +1475,36 @@
       <c r="Q11" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2"/>
-    <col min="2" max="4" width="8.5" style="2"/>
-    <col min="5" max="1025" width="8.6640625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="8.51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
@@ -1799,67 +1515,73 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="12" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2"/>
-    <col min="2" max="2" width="18.1640625" style="2"/>
-    <col min="3" max="3" width="13.83203125" style="2"/>
-    <col min="4" max="4" width="12.5" style="2"/>
-    <col min="5" max="1024" width="8.6640625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
@@ -1870,154 +1592,170 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="12" t="n">
         <v>-0.7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="12" t="n">
         <v>-0.7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FB4C1-4B21-1E49-B8E2-B257F97AD1D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5"/>
-    <col min="2" max="3" width="16"/>
-    <col min="4" max="1025" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2025,286 +1763,237 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A15:A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="2"/>
-    <col min="2" max="2" width="12.1640625" style="14"/>
-    <col min="3" max="999" width="8.6640625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1000" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14">
+        <v>57</v>
+      </c>
+      <c r="B2" s="14" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>57</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B4" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="14">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="14" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="14" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="14" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="14">
-        <v>7.0000000000000007E-2</v>
+      <c r="B11" s="14" t="n">
+        <v>0.07</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="14">
+        <v>43</v>
+      </c>
+      <c r="B12" s="14" t="n">
         <v>0.25</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14">
+        <v>44</v>
+      </c>
+      <c r="B13" s="14" t="n">
         <v>0.45</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="14">
+        <v>63</v>
+      </c>
+      <c r="B14" s="14" t="n">
         <v>0.8</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14" t="n">
         <v>0.01</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2312,69 +2001,72 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="11.5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="C5" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G7" s="0" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" location="create-design-matrix-for-one-by-one-sensitivities" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId1" display="One-by-one sensitivities and Tornado plots"/>
+    <hyperlink ref="C5" r:id="rId2" location="create-design-matrix-for-one-by-one-sensitivities" display="https://sdp.equinor.com/wikidocs/FMU/lib/fmu/tools/html/examples.html#create-design-matrix-for-one-by-one-sensitivities"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
